--- a/Implement.xlsx
+++ b/Implement.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\redoks\Documents\skripzii\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORK\skripzi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974CB37F-C6B4-448D-9F3F-36DBF88BA325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D8D3ED-B19F-406B-B43C-A45E26536AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{5954050E-EAD3-4849-B774-D28D31C92BE6}"/>
+    <workbookView xWindow="10545" yWindow="1890" windowWidth="25995" windowHeight="16380" activeTab="2" xr2:uid="{5954050E-EAD3-4849-B774-D28D31C92BE6}"/>
   </bookViews>
   <sheets>
     <sheet name="YOLOv9" sheetId="1" r:id="rId1"/>
@@ -22,23 +22,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="258">
   <si>
     <t>8_0.001</t>
   </si>
@@ -61,12 +50,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>epoch</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>train/box_loss</t>
   </si>
   <si>
@@ -812,19 +795,31 @@
   </si>
   <si>
     <t>0.52283</t>
+  </si>
+  <si>
+    <t>total_epoch</t>
+  </si>
+  <si>
+    <t>total_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -835,7 +830,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -961,11 +956,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -974,25 +1020,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1003,8 +1035,95 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1342,531 +1461,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B230CBF-AF18-4473-B38F-980A206D48C7}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="103" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="103" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.88671875" customWidth="1"/>
+    <col min="1" max="1" width="19.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="17"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="17"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
         <v>153</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="15">
         <v>123</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3">
         <v>182</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <v>36</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
         <v>38</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3">
         <v>139</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3">
         <v>97</v>
       </c>
-      <c r="J3" s="12">
+      <c r="J3">
         <v>31</v>
       </c>
-      <c r="K3" s="12">
+      <c r="K3">
         <v>46</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3">
         <v>36</v>
       </c>
       <c r="M3" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>116087</v>
+      </c>
+      <c r="C5" s="8">
+        <v>100368</v>
+      </c>
+      <c r="D5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="8">
+        <v>116476</v>
+      </c>
+      <c r="F5" s="8">
+        <v>104929</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="8">
+        <v>113872</v>
+      </c>
+      <c r="I5" s="8">
+        <v>100394</v>
+      </c>
+      <c r="J5" s="8">
+        <v>119269</v>
+      </c>
+      <c r="K5" s="8">
+        <v>114262</v>
+      </c>
+      <c r="L5" s="8">
+        <v>101155</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
+      <c r="J6" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>67</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8">
+        <v>13208</v>
+      </c>
+      <c r="C7" s="8">
+        <v>119547</v>
+      </c>
+      <c r="D7" s="8">
+        <v>109861</v>
+      </c>
+      <c r="E7" s="8">
+        <v>131245</v>
+      </c>
+      <c r="F7" s="8">
+        <v>121221</v>
+      </c>
+      <c r="G7" s="8">
+        <v>115929</v>
+      </c>
+      <c r="H7" s="8">
+        <v>129174</v>
+      </c>
+      <c r="I7" s="8">
+        <v>118485</v>
+      </c>
+      <c r="J7" s="8">
+        <v>132722</v>
+      </c>
+      <c r="K7" s="8">
+        <v>127248</v>
+      </c>
+      <c r="L7" s="8">
+        <v>117283</v>
+      </c>
+      <c r="M7" s="9">
+        <v>110651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="12" t="s">
+      <c r="D8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="12" t="s">
+      <c r="F8" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="G8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I8" t="s">
         <v>61</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J8" t="s">
         <v>91</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K8" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L8" t="s">
         <v>68</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13">
-        <v>116087</v>
-      </c>
-      <c r="C5" s="13">
-        <v>100368</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E5" s="13">
-        <v>116476</v>
-      </c>
-      <c r="F5" s="13">
-        <v>104929</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="H5" s="13">
-        <v>113872</v>
-      </c>
-      <c r="I5" s="13">
-        <v>100394</v>
-      </c>
-      <c r="J5" s="13">
-        <v>119269</v>
-      </c>
-      <c r="K5" s="13">
-        <v>114262</v>
-      </c>
-      <c r="L5" s="13">
-        <v>101155</v>
-      </c>
-      <c r="M5" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C9" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D9" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F9" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G9" t="s">
         <v>85</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H9" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I9" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J9" t="s">
         <v>92</v>
       </c>
-      <c r="K6" s="12" t="s">
+      <c r="K9" t="s">
         <v>41</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L9" t="s">
         <v>69</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="13">
-        <v>13208</v>
-      </c>
-      <c r="C7" s="13">
-        <v>119547</v>
-      </c>
-      <c r="D7" s="13">
-        <v>109861</v>
-      </c>
-      <c r="E7" s="13">
-        <v>131245</v>
-      </c>
-      <c r="F7" s="13">
-        <v>121221</v>
-      </c>
-      <c r="G7" s="13">
-        <v>115929</v>
-      </c>
-      <c r="H7" s="13">
-        <v>129174</v>
-      </c>
-      <c r="I7" s="13">
-        <v>118485</v>
-      </c>
-      <c r="J7" s="13">
-        <v>132722</v>
-      </c>
-      <c r="K7" s="13">
-        <v>127248</v>
-      </c>
-      <c r="L7" s="13">
-        <v>117283</v>
-      </c>
-      <c r="M7" s="14">
-        <v>110651</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C10" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D10" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E10" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F10" t="s">
         <v>56</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G10" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H10" t="s">
         <v>35</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="I10" t="s">
         <v>63</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="J10" t="s">
         <v>93</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="K10" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L10" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M10" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C11" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D11" t="s">
         <v>79</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E11" t="s">
         <v>29</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F11" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G11" t="s">
         <v>87</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H11" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="I11" t="s">
         <v>64</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="J11" t="s">
         <v>94</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="K11" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="L11" t="s">
         <v>71</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M11" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B12" s="8">
+        <v>133479</v>
+      </c>
+      <c r="C12" s="8">
+        <v>135412</v>
+      </c>
+      <c r="D12" s="8">
+        <v>137849</v>
+      </c>
+      <c r="E12" s="8">
+        <v>131088</v>
+      </c>
+      <c r="F12" s="8">
+        <v>129887</v>
+      </c>
+      <c r="G12" s="8">
+        <v>129319</v>
+      </c>
+      <c r="H12" s="8">
+        <v>134283</v>
+      </c>
+      <c r="I12" s="8">
+        <v>134797</v>
+      </c>
+      <c r="J12" s="8">
+        <v>136475</v>
+      </c>
+      <c r="K12" s="8">
+        <v>132618</v>
+      </c>
+      <c r="L12" s="8">
+        <v>133798</v>
+      </c>
+      <c r="M12" s="9">
+        <v>131601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C13" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D13" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F13" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G13" t="s">
         <v>88</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H13" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="12" t="s">
+      <c r="I13" t="s">
         <v>65</v>
       </c>
-      <c r="J10" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" s="12" t="s">
+      <c r="J13" s="8">
+        <v>100895</v>
+      </c>
+      <c r="K13" t="s">
         <v>44</v>
       </c>
-      <c r="L10" s="12" t="s">
+      <c r="L13" t="s">
         <v>72</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M13" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="13">
-        <v>133479</v>
-      </c>
-      <c r="C12" s="13">
-        <v>135412</v>
-      </c>
-      <c r="D12" s="13">
-        <v>137849</v>
-      </c>
-      <c r="E12" s="13">
-        <v>131088</v>
-      </c>
-      <c r="F12" s="13">
-        <v>129887</v>
-      </c>
-      <c r="G12" s="13">
-        <v>129319</v>
-      </c>
-      <c r="H12" s="13">
-        <v>134283</v>
-      </c>
-      <c r="I12" s="13">
-        <v>134797</v>
-      </c>
-      <c r="J12" s="13">
-        <v>136475</v>
-      </c>
-      <c r="K12" s="13">
-        <v>132618</v>
-      </c>
-      <c r="L12" s="13">
-        <v>133798</v>
-      </c>
-      <c r="M12" s="14">
-        <v>131601</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="J13" s="13">
-        <v>100895</v>
-      </c>
-      <c r="K13" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L13" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
-        <v>18</v>
       </c>
       <c r="B14" s="2">
         <v>154166</v>
@@ -1901,7 +2020,7 @@
       <c r="L14" s="2">
         <v>146205</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="10">
         <v>14593</v>
       </c>
     </row>
@@ -1921,406 +2040,406 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A14"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="9"/>
-      <c r="F1" s="8" t="s">
+      <c r="E1" s="17"/>
+      <c r="F1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="9"/>
-      <c r="H1" s="7" t="s">
+      <c r="G1" s="17"/>
+      <c r="H1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I1" s="16"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="12">
+      <c r="B2" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3">
         <v>113</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3">
         <v>138</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3">
         <v>54</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3">
         <v>59</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3">
         <v>104</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3">
         <v>61</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3">
         <v>48</v>
       </c>
       <c r="I3" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4">
+        <v>23291</v>
+      </c>
+      <c r="G4" t="s">
+        <v>170</v>
+      </c>
+      <c r="H4" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" t="s">
+        <v>160</v>
+      </c>
+      <c r="F5" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B6" t="s">
         <v>107</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C6" t="s">
         <v>150</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D6" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E6" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="12">
-        <v>23291</v>
-      </c>
-      <c r="G4" s="12" t="s">
+      <c r="F6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s">
         <v>172</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H6" t="s">
         <v>139</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C7" t="s">
+        <v>151</v>
+      </c>
+      <c r="D7" t="s">
+        <v>119</v>
+      </c>
+      <c r="E7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" t="s">
+        <v>140</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" t="s">
+        <v>174</v>
+      </c>
+      <c r="H8" t="s">
+        <v>141</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" t="s">
+        <v>121</v>
+      </c>
+      <c r="E9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
+        <v>176</v>
+      </c>
+      <c r="H10" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" t="s">
+        <v>177</v>
+      </c>
+      <c r="H11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F5" s="12" t="s">
-        <v>129</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="H5" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>174</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" t="s">
+        <v>156</v>
+      </c>
+      <c r="D12" t="s">
+        <v>124</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>134</v>
+      </c>
+      <c r="G12" t="s">
+        <v>178</v>
+      </c>
+      <c r="H12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" t="s">
+        <v>157</v>
+      </c>
+      <c r="D13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>135</v>
+      </c>
+      <c r="G13" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" t="s">
+        <v>146</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>110</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="H7" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>154</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="H9" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="12" t="s">
+      <c r="B14" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C14" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D14" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E14" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F14" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G14" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H14" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I14" s="4" t="s">
         <v>191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="H13" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>217</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="I14" s="4" t="s">
-        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -2336,578 +2455,893 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2245453-BDBB-4178-9DAC-79E2272C1199}">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="5"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="20"/>
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="22"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="8" t="s">
+      <c r="F1" s="22"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="9"/>
-      <c r="J1" s="10"/>
-      <c r="K1" s="7" t="s">
+      <c r="I1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="11" t="s">
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="K2" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B3" s="28">
+        <v>109</v>
+      </c>
+      <c r="C3" s="28">
+        <v>174</v>
+      </c>
+      <c r="D3" s="28">
+        <v>150</v>
+      </c>
+      <c r="E3" s="39">
+        <v>117</v>
+      </c>
+      <c r="F3" s="40">
+        <v>188</v>
+      </c>
+      <c r="G3" s="41">
+        <v>54</v>
+      </c>
+      <c r="H3" s="28">
+        <v>145</v>
+      </c>
+      <c r="I3" s="28">
+        <v>139</v>
+      </c>
+      <c r="J3" s="28">
+        <v>107</v>
+      </c>
+      <c r="K3" s="28">
+        <v>128</v>
+      </c>
+      <c r="L3" s="28">
+        <v>54</v>
+      </c>
+      <c r="M3" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B4" s="28">
+        <v>12322</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>197</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>241</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="L4" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="31">
+        <v>243436</v>
+      </c>
+      <c r="C5" s="31">
+        <v>201078</v>
+      </c>
+      <c r="D5" s="31">
+        <v>192587</v>
+      </c>
+      <c r="E5" s="43">
+        <v>199731</v>
+      </c>
+      <c r="F5" s="38">
+        <v>198211</v>
+      </c>
+      <c r="G5" s="32">
+        <v>190896</v>
+      </c>
+      <c r="H5" s="31">
+        <v>226507</v>
+      </c>
+      <c r="I5" s="31">
+        <v>200573</v>
+      </c>
+      <c r="J5" s="31">
+        <v>198476</v>
+      </c>
+      <c r="K5" s="31">
+        <v>189915</v>
+      </c>
+      <c r="L5" s="31">
+        <v>196896</v>
+      </c>
+      <c r="M5" s="32">
+        <v>199209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="31">
+        <v>198149</v>
+      </c>
+      <c r="C6" s="31">
+        <v>148982</v>
+      </c>
+      <c r="D6" s="31">
+        <v>141913</v>
+      </c>
+      <c r="E6" s="43">
+        <v>144895</v>
+      </c>
+      <c r="F6" s="38">
+        <v>147546</v>
+      </c>
+      <c r="G6" s="32">
+        <v>134995</v>
+      </c>
+      <c r="H6" s="31">
+        <v>172874</v>
+      </c>
+      <c r="I6" s="31">
+        <v>146065</v>
+      </c>
+      <c r="J6" s="31">
+        <v>142712</v>
+      </c>
+      <c r="K6" s="31">
+        <v>132568</v>
+      </c>
+      <c r="L6" s="31">
+        <v>138849</v>
+      </c>
+      <c r="M6" s="32">
+        <v>141819</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="31">
+        <v>240514</v>
+      </c>
+      <c r="C7" s="31">
+        <v>231333</v>
+      </c>
+      <c r="D7" s="31">
+        <v>228432</v>
+      </c>
+      <c r="E7" s="43">
+        <v>21366</v>
+      </c>
+      <c r="F7" s="38">
+        <v>229442</v>
+      </c>
+      <c r="G7" s="32">
+        <v>223828</v>
+      </c>
+      <c r="H7" s="31">
+        <v>227508</v>
+      </c>
+      <c r="I7" s="31">
+        <v>229004</v>
+      </c>
+      <c r="J7" s="31">
+        <v>229662</v>
+      </c>
+      <c r="K7" s="31">
+        <v>207403</v>
+      </c>
+      <c r="L7" s="31">
+        <v>224978</v>
+      </c>
+      <c r="M7" s="32">
+        <v>227501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>242</v>
+      </c>
+      <c r="H8" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="I8" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="K8" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="L8" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M8" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="C9" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>204</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>248</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="L9" s="28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M9" s="29" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="I10" s="28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J10" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>210</v>
+      </c>
+      <c r="L10" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10" s="29" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>220</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="G11" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>206</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>230</v>
+      </c>
+      <c r="J11" s="28" t="s">
+        <v>250</v>
+      </c>
+      <c r="K11" s="28" t="s">
+        <v>211</v>
+      </c>
+      <c r="L11" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="M11" s="29" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="31">
+        <v>280277</v>
+      </c>
+      <c r="C12" s="31">
+        <v>278851</v>
+      </c>
+      <c r="D12" s="31">
+        <v>279928</v>
+      </c>
+      <c r="E12" s="43">
+        <v>280489</v>
+      </c>
+      <c r="F12" s="38">
+        <v>278668</v>
+      </c>
+      <c r="G12" s="32">
+        <v>270202</v>
+      </c>
+      <c r="H12" s="31">
+        <v>286094</v>
+      </c>
+      <c r="I12" s="31">
+        <v>278814</v>
+      </c>
+      <c r="J12" s="31">
+        <v>279254</v>
+      </c>
+      <c r="K12" s="31">
+        <v>281667</v>
+      </c>
+      <c r="L12" s="31">
+        <v>272104</v>
+      </c>
+      <c r="M12" s="32">
+        <v>268403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="31">
+        <v>209757</v>
+      </c>
+      <c r="C13" s="31">
+        <v>209591</v>
+      </c>
+      <c r="D13" s="31">
+        <v>206692</v>
+      </c>
+      <c r="E13" s="43">
+        <v>223116</v>
+      </c>
+      <c r="F13" s="38">
+        <v>208539</v>
+      </c>
+      <c r="G13" s="32">
+        <v>203039</v>
+      </c>
+      <c r="H13" s="31">
+        <v>218469</v>
+      </c>
+      <c r="I13" s="31">
+        <v>209035</v>
+      </c>
+      <c r="J13" s="31">
+        <v>213922</v>
+      </c>
+      <c r="K13" s="31">
+        <v>228229</v>
+      </c>
+      <c r="L13" s="31">
+        <v>21165</v>
+      </c>
+      <c r="M13" s="32">
+        <v>202321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="34">
+        <v>282986</v>
+      </c>
+      <c r="C14" s="34">
+        <v>317003</v>
+      </c>
+      <c r="D14" s="34">
+        <v>323184</v>
+      </c>
+      <c r="E14" s="44">
+        <v>279423</v>
+      </c>
+      <c r="F14" s="34">
+        <v>316092</v>
+      </c>
+      <c r="G14" s="35">
+        <v>301239</v>
+      </c>
+      <c r="H14" s="34">
+        <v>285825</v>
+      </c>
+      <c r="I14" s="34">
+        <v>313941</v>
+      </c>
+      <c r="J14" s="34">
+        <v>31927</v>
+      </c>
+      <c r="K14" s="34">
+        <v>280646</v>
+      </c>
+      <c r="L14" s="34">
+        <v>300242</v>
+      </c>
+      <c r="M14" s="35">
+        <v>295285</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="C18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="H2" s="11" t="s">
+      <c r="D18" s="26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E18" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="F18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="G18" s="26" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>256</v>
+      </c>
+      <c r="B19" s="28">
+        <v>145</v>
+      </c>
+      <c r="C19" s="28">
+        <v>139</v>
+      </c>
+      <c r="D19" s="28">
+        <v>107</v>
+      </c>
+      <c r="E19" s="28">
+        <v>128</v>
+      </c>
+      <c r="F19" s="28">
+        <v>54</v>
+      </c>
+      <c r="G19" s="29">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>257</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="C20" s="28" t="s">
+        <v>226</v>
+      </c>
+      <c r="D20" s="28" t="s">
+        <v>246</v>
+      </c>
+      <c r="E20" s="28" t="s">
+        <v>207</v>
+      </c>
+      <c r="F20" s="28" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="12">
-        <v>109</v>
-      </c>
-      <c r="C3" s="12">
-        <v>174</v>
-      </c>
-      <c r="D3" s="12">
-        <v>150</v>
-      </c>
-      <c r="E3" s="12">
-        <v>117</v>
-      </c>
-      <c r="F3" s="12">
-        <v>188</v>
-      </c>
-      <c r="G3" s="12">
-        <v>54</v>
-      </c>
-      <c r="H3" s="12">
-        <v>145</v>
-      </c>
-      <c r="I3" s="12">
-        <v>139</v>
-      </c>
-      <c r="J3" s="12">
-        <v>107</v>
-      </c>
-      <c r="K3" s="12">
-        <v>128</v>
-      </c>
-      <c r="L3" s="12">
-        <v>54</v>
-      </c>
-      <c r="M3" s="1">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="17" t="s">
+      <c r="B21" s="31">
+        <v>226507</v>
+      </c>
+      <c r="C21" s="31">
+        <v>200573</v>
+      </c>
+      <c r="D21" s="31">
+        <v>198476</v>
+      </c>
+      <c r="E21" s="31">
+        <v>189915</v>
+      </c>
+      <c r="F21" s="31">
+        <v>196896</v>
+      </c>
+      <c r="G21" s="32">
+        <v>199209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="12">
-        <v>12322</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="H4" s="12" t="s">
+      <c r="B22" s="31">
+        <v>172874</v>
+      </c>
+      <c r="C22" s="31">
+        <v>146065</v>
+      </c>
+      <c r="D22" s="31">
+        <v>142712</v>
+      </c>
+      <c r="E22" s="31">
+        <v>132568</v>
+      </c>
+      <c r="F22" s="31">
+        <v>138849</v>
+      </c>
+      <c r="G22" s="32">
+        <v>141819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" s="31">
+        <v>227508</v>
+      </c>
+      <c r="C23" s="31">
+        <v>229004</v>
+      </c>
+      <c r="D23" s="31">
+        <v>229662</v>
+      </c>
+      <c r="E23" s="31">
+        <v>207403</v>
+      </c>
+      <c r="F23" s="31">
+        <v>224978</v>
+      </c>
+      <c r="G23" s="32">
+        <v>227501</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="C24" s="28" t="s">
+        <v>227</v>
+      </c>
+      <c r="D24" s="28" t="s">
+        <v>247</v>
+      </c>
+      <c r="E24" s="28" t="s">
+        <v>208</v>
+      </c>
+      <c r="F24" s="28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" s="29" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B25" s="28" t="s">
         <v>204</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="C25" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="D25" s="28" t="s">
         <v>248</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="E25" s="28" t="s">
         <v>209</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="F25" s="28" t="s">
         <v>233</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="G25" s="29" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="13">
-        <v>243436</v>
-      </c>
-      <c r="C5" s="13">
-        <v>201078</v>
-      </c>
-      <c r="D5" s="13">
-        <v>192587</v>
-      </c>
-      <c r="E5" s="13">
-        <v>199731</v>
-      </c>
-      <c r="F5" s="13">
-        <v>198211</v>
-      </c>
-      <c r="G5" s="13">
-        <v>190896</v>
-      </c>
-      <c r="H5" s="13">
-        <v>226507</v>
-      </c>
-      <c r="I5" s="13">
-        <v>200573</v>
-      </c>
-      <c r="J5" s="13">
-        <v>198476</v>
-      </c>
-      <c r="K5" s="13">
-        <v>189915</v>
-      </c>
-      <c r="L5" s="13">
-        <v>196896</v>
-      </c>
-      <c r="M5" s="14">
-        <v>199209</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="13">
-        <v>198149</v>
-      </c>
-      <c r="C6" s="13">
-        <v>148982</v>
-      </c>
-      <c r="D6" s="13">
-        <v>141913</v>
-      </c>
-      <c r="E6" s="13">
-        <v>144895</v>
-      </c>
-      <c r="F6" s="13">
-        <v>147546</v>
-      </c>
-      <c r="G6" s="13">
-        <v>134995</v>
-      </c>
-      <c r="H6" s="13">
-        <v>172874</v>
-      </c>
-      <c r="I6" s="13">
-        <v>146065</v>
-      </c>
-      <c r="J6" s="13">
-        <v>142712</v>
-      </c>
-      <c r="K6" s="13">
-        <v>132568</v>
-      </c>
-      <c r="L6" s="13">
-        <v>138849</v>
-      </c>
-      <c r="M6" s="14">
-        <v>141819</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="13">
-        <v>240514</v>
-      </c>
-      <c r="C7" s="13">
-        <v>231333</v>
-      </c>
-      <c r="D7" s="13">
-        <v>228432</v>
-      </c>
-      <c r="E7" s="13">
-        <v>21366</v>
-      </c>
-      <c r="F7" s="13">
-        <v>229442</v>
-      </c>
-      <c r="G7" s="13">
-        <v>223828</v>
-      </c>
-      <c r="H7" s="13">
-        <v>227508</v>
-      </c>
-      <c r="I7" s="13">
-        <v>229004</v>
-      </c>
-      <c r="J7" s="13">
-        <v>229662</v>
-      </c>
-      <c r="K7" s="13">
-        <v>207403</v>
-      </c>
-      <c r="L7" s="13">
-        <v>224978</v>
-      </c>
-      <c r="M7" s="14">
-        <v>227501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="H8" s="12" t="s">
+      <c r="B26" s="28" t="s">
         <v>205</v>
       </c>
-      <c r="I8" s="12" t="s">
+      <c r="C26" s="28" t="s">
         <v>229</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="D26" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="K8" s="12" t="s">
+      <c r="E26" s="28" t="s">
         <v>210</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="F26" s="28" t="s">
         <v>234</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="G26" s="29" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="17" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="G9" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="12" t="s">
+      <c r="B27" s="28" t="s">
         <v>206</v>
       </c>
-      <c r="I9" s="12" t="s">
+      <c r="C27" s="28" t="s">
         <v>230</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="D27" s="28" t="s">
         <v>250</v>
       </c>
-      <c r="K9" s="12" t="s">
+      <c r="E27" s="28" t="s">
         <v>211</v>
       </c>
-      <c r="L9" s="12" t="s">
+      <c r="F27" s="28" t="s">
         <v>235</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="G27" s="29" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="17" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>246</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="K10" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="L10" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="17" t="s">
+      <c r="B28" s="31">
+        <v>286094</v>
+      </c>
+      <c r="C28" s="31">
+        <v>278814</v>
+      </c>
+      <c r="D28" s="31">
+        <v>279254</v>
+      </c>
+      <c r="E28" s="31">
+        <v>281667</v>
+      </c>
+      <c r="F28" s="31">
+        <v>272104</v>
+      </c>
+      <c r="G28" s="32">
+        <v>268403</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="17" t="s">
+      <c r="B29" s="31">
+        <v>218469</v>
+      </c>
+      <c r="C29" s="31">
+        <v>209035</v>
+      </c>
+      <c r="D29" s="31">
+        <v>213922</v>
+      </c>
+      <c r="E29" s="31">
+        <v>228229</v>
+      </c>
+      <c r="F29" s="31">
+        <v>21165</v>
+      </c>
+      <c r="G29" s="32">
+        <v>202321</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="13">
-        <v>280277</v>
-      </c>
-      <c r="C12" s="13">
-        <v>278851</v>
-      </c>
-      <c r="D12" s="13">
-        <v>279928</v>
-      </c>
-      <c r="E12" s="13">
-        <v>280489</v>
-      </c>
-      <c r="F12" s="13">
-        <v>278668</v>
-      </c>
-      <c r="G12" s="13">
-        <v>270202</v>
-      </c>
-      <c r="H12" s="13">
-        <v>286094</v>
-      </c>
-      <c r="I12" s="13">
-        <v>278814</v>
-      </c>
-      <c r="J12" s="13">
-        <v>279254</v>
-      </c>
-      <c r="K12" s="13">
-        <v>281667</v>
-      </c>
-      <c r="L12" s="13">
-        <v>272104</v>
-      </c>
-      <c r="M12" s="14">
-        <v>268403</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="13">
-        <v>209757</v>
-      </c>
-      <c r="C13" s="13">
-        <v>209591</v>
-      </c>
-      <c r="D13" s="13">
-        <v>206692</v>
-      </c>
-      <c r="E13" s="13">
-        <v>223116</v>
-      </c>
-      <c r="F13" s="13">
-        <v>208539</v>
-      </c>
-      <c r="G13" s="13">
-        <v>203039</v>
-      </c>
-      <c r="H13" s="13">
-        <v>218469</v>
-      </c>
-      <c r="I13" s="13">
-        <v>209035</v>
-      </c>
-      <c r="J13" s="13">
-        <v>213922</v>
-      </c>
-      <c r="K13" s="13">
-        <v>228229</v>
-      </c>
-      <c r="L13" s="13">
-        <v>21165</v>
-      </c>
-      <c r="M13" s="14">
-        <v>202321</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="2">
-        <v>282986</v>
-      </c>
-      <c r="C14" s="2">
-        <v>317003</v>
-      </c>
-      <c r="D14" s="2">
-        <v>323184</v>
-      </c>
-      <c r="E14" s="2">
-        <v>279423</v>
-      </c>
-      <c r="F14" s="2">
-        <v>316092</v>
-      </c>
-      <c r="G14" s="2">
-        <v>301239</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="B30" s="34">
         <v>285825</v>
       </c>
-      <c r="I14" s="2">
+      <c r="C30" s="34">
         <v>313941</v>
       </c>
-      <c r="J14" s="2">
+      <c r="D30" s="34">
         <v>31927</v>
       </c>
-      <c r="K14" s="2">
+      <c r="E30" s="34">
         <v>280646</v>
       </c>
-      <c r="L14" s="2">
+      <c r="F30" s="34">
         <v>300242</v>
       </c>
-      <c r="M14" s="15">
+      <c r="G30" s="35">
         <v>295285</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="8">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="H1:J1"/>
     <mergeCell ref="K1:M1"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>